--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_42.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_42.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9937360565331059</v>
+        <v>0.8484271362964559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7942873157157304</v>
+        <v>0.6062364435546237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7612594172285571</v>
+        <v>0.7415677840412709</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9917236302253328</v>
+        <v>0.655231035384376</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0260738319083973</v>
+        <v>0.3592568852394652</v>
       </c>
       <c r="G2" t="n">
-        <v>1.375601667028725</v>
+        <v>2.633098715064692</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8539612215990946</v>
+        <v>0.9243970517235223</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0303989949969422</v>
+        <v>0.3960827851665367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4246735102785132</v>
+        <v>1.094625345800051</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1614739356936509</v>
+        <v>0.5993804177977999</v>
       </c>
       <c r="L2" t="n">
-        <v>1.400892381881221</v>
+        <v>0.7936029089994294</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1640169887661092</v>
+        <v>0.6088200602175142</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2936461529513</v>
+        <v>36.04743517722632</v>
       </c>
       <c r="O2" t="n">
-        <v>278.6288186961677</v>
+        <v>73.01201876545214</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9937864132417814</v>
+        <v>0.8485662675477881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.794259340059164</v>
+        <v>0.6061324514996456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7607387947208012</v>
+        <v>0.7410176842025666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9914204743401939</v>
+        <v>0.6531091211038864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02586422076417124</v>
+        <v>0.3589271173722378</v>
       </c>
       <c r="G3" t="n">
-        <v>1.375788740373</v>
+        <v>2.63379411041517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.85582345812191</v>
+        <v>0.9263647269499461</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03151248249043724</v>
+        <v>0.3985205153695378</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4224844788993464</v>
+        <v>1.086317049054216</v>
       </c>
       <c r="K3" t="n">
-        <v>0.160823570300411</v>
+        <v>0.5991052640164646</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39766955252599</v>
+        <v>0.7937923643203922</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1633563807680526</v>
+        <v>0.6085405730391759</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3097894060363</v>
+        <v>36.04927185356109</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6449619492527</v>
+        <v>73.01385544178692</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9938339268755535</v>
+        <v>0.8487054870840521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7942229076590366</v>
+        <v>0.606041177099828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7602225099799772</v>
+        <v>0.7404799805049049</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9911111547966377</v>
+        <v>0.6509202890146129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02566644399513148</v>
+        <v>0.3585971402527152</v>
       </c>
       <c r="G4" t="n">
-        <v>1.376032364000408</v>
+        <v>2.634404462747031</v>
       </c>
       <c r="H4" t="n">
-        <v>0.857670178703928</v>
+        <v>0.9282880618986301</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03264860901849589</v>
+        <v>0.4010351231189562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.420182989549312</v>
+        <v>1.078527338175756</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1602075029302045</v>
+        <v>0.5988298090882878</v>
       </c>
       <c r="L4" t="n">
-        <v>1.394628679964576</v>
+        <v>0.7939819398591348</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1627306109526068</v>
+        <v>0.6082607799712341</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3251416426971</v>
+        <v>36.0511113851966</v>
       </c>
       <c r="O4" t="n">
-        <v>278.6603141859135</v>
+        <v>73.01569497342241</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9938832884387637</v>
+        <v>0.8488398126009875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7941747256722795</v>
+        <v>0.6059482995030537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7597241374748318</v>
+        <v>0.7399474315980925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9908282281123783</v>
+        <v>0.6487260084506108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02546097517047121</v>
+        <v>0.3582787629017614</v>
       </c>
       <c r="G5" t="n">
-        <v>1.37635455716771</v>
+        <v>2.635025535664322</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8594528282575352</v>
+        <v>0.9301929584593382</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03368779492892093</v>
+        <v>0.4035559902689205</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4177073080968672</v>
+        <v>1.070812661427731</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1595649559598573</v>
+        <v>0.5985639171398167</v>
       </c>
       <c r="L5" t="n">
-        <v>1.391469539919122</v>
+        <v>0.7941648512013447</v>
       </c>
       <c r="M5" t="n">
-        <v>0.162077944509788</v>
+        <v>0.6079907004903691</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3412167690509</v>
+        <v>36.0528878565244</v>
       </c>
       <c r="O5" t="n">
-        <v>278.6763893122673</v>
+        <v>73.01747144475021</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9939242108477889</v>
+        <v>0.8489691261922903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.794125539831577</v>
+        <v>0.6058542561482664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7592022817216277</v>
+        <v>0.7394208915953411</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9905043210520246</v>
+        <v>0.6465256467637441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02529063455040499</v>
+        <v>0.3579722647800304</v>
       </c>
       <c r="G6" t="n">
-        <v>1.376683463110969</v>
+        <v>2.635654404010815</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8613194760278107</v>
+        <v>0.9320763615186369</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03487750121020688</v>
+        <v>0.4060838436279939</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4154755257028128</v>
+        <v>1.063227356827768</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1590302944423011</v>
+        <v>0.5983078344631887</v>
       </c>
       <c r="L6" t="n">
-        <v>1.388850505741509</v>
+        <v>0.7943409377937569</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1615348626077957</v>
+        <v>0.6077305847675729</v>
       </c>
       <c r="N6" t="n">
-        <v>137.354642255308</v>
+        <v>36.05459953652816</v>
       </c>
       <c r="O6" t="n">
-        <v>278.6898147985244</v>
+        <v>73.01918312475398</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9939650370496838</v>
+        <v>0.8490927964626364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7940683392183223</v>
+        <v>0.6057556591480906</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7586923083286429</v>
+        <v>0.7388973209173004</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9901910781157104</v>
+        <v>0.6443298499779984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02512069439508782</v>
+        <v>0.3576791424160684</v>
       </c>
       <c r="G7" t="n">
-        <v>1.377065963875187</v>
+        <v>2.636313722604988</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8631436212845612</v>
+        <v>0.9339491434756162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03602803830715828</v>
+        <v>0.4086064526671445</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4131345276285781</v>
+        <v>1.055637235491224</v>
       </c>
       <c r="K7" t="n">
-        <v>0.158495092653015</v>
+        <v>0.5980628248069498</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38623762882024</v>
+        <v>0.7945093398640155</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1609912319253338</v>
+        <v>0.607481716454168</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3681265892953</v>
+        <v>36.05623788937652</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7032991325117</v>
+        <v>73.02082147760234</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9940012506570512</v>
+        <v>0.8492113015980425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7940009950560873</v>
+        <v>0.6056553105164144</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7581669428257508</v>
+        <v>0.7383796538452339</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9898628546323518</v>
+        <v>0.6421281976008781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02496995428763185</v>
+        <v>0.3573982624169007</v>
       </c>
       <c r="G8" t="n">
-        <v>1.377516294598143</v>
+        <v>2.63698475436707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.865022823225964</v>
+        <v>0.9358008085763367</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03723359875215396</v>
+        <v>0.4111357888168484</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4108020456110052</v>
+        <v>1.048215344382611</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1580188415589478</v>
+        <v>0.5978279538603901</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38391995794872</v>
+        <v>0.7946707085590365</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1605074803526115</v>
+        <v>0.6072431465249849</v>
       </c>
       <c r="N8" t="n">
-        <v>137.3801640107674</v>
+        <v>36.05780907600172</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7153365539838</v>
+        <v>73.02239266422754</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9940333742525395</v>
+        <v>0.8493241231287103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7939529901183321</v>
+        <v>0.6055508508862192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7576582519609925</v>
+        <v>0.7378653253677967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9895181434980383</v>
+        <v>0.639929484993326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02483623896381379</v>
+        <v>0.3571308536558251</v>
       </c>
       <c r="G9" t="n">
-        <v>1.377837303837955</v>
+        <v>2.637683276395177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8668423809536137</v>
+        <v>0.9376405317176509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03849971811761041</v>
+        <v>0.4136617476552576</v>
       </c>
       <c r="J9" t="n">
-        <v>0.408393255132138</v>
+        <v>1.0408374614937</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1575951743037007</v>
+        <v>0.5976042617450323</v>
       </c>
       <c r="L9" t="n">
-        <v>1.381864047837475</v>
+        <v>0.7948243378773927</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1600771407616061</v>
+        <v>0.6070159314824203</v>
       </c>
       <c r="N9" t="n">
-        <v>137.3909028877101</v>
+        <v>36.05930605501933</v>
       </c>
       <c r="O9" t="n">
-        <v>278.7260754309265</v>
+        <v>73.02388964324516</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9940730936507706</v>
+        <v>0.8494312530038043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7938976492591928</v>
+        <v>0.605439666997212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7571881797168252</v>
+        <v>0.7373512126063572</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9892263589815942</v>
+        <v>0.6377391506239224</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02467090590829473</v>
+        <v>0.3568769352148722</v>
       </c>
       <c r="G10" t="n">
-        <v>1.378207368417841</v>
+        <v>2.638426763572923</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8685238021146453</v>
+        <v>0.9394794832553492</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0395714387266537</v>
+        <v>0.416178081277243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4057057214886854</v>
+        <v>1.033387728006336</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1570697485459716</v>
+        <v>0.5973917769896672</v>
       </c>
       <c r="L10" t="n">
-        <v>1.379322006350684</v>
+        <v>0.7949702168562441</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1595434400734258</v>
+        <v>0.6068001003045649</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4042612561309</v>
+        <v>36.06072855183584</v>
       </c>
       <c r="O10" t="n">
-        <v>278.7394337993472</v>
+        <v>73.02531214006166</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9941056219593513</v>
+        <v>0.849532744926087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.793831132045942</v>
+        <v>0.6053237595970049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7567257737083698</v>
+        <v>0.7368395069291509</v>
       </c>
       <c r="E11" t="n">
-        <v>0.988907923345543</v>
+        <v>0.6355503948367416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02453550595542488</v>
+        <v>0.3566363798081499</v>
       </c>
       <c r="G11" t="n">
-        <v>1.378652169329132</v>
+        <v>2.639201836891812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8701778015950493</v>
+        <v>0.9413098247923162</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04074104853997979</v>
+        <v>0.4186926013681174</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4031344442197231</v>
+        <v>1.026008257849325</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1566381369763599</v>
+        <v>0.5971904049866759</v>
       </c>
       <c r="L11" t="n">
-        <v>1.377240194601519</v>
+        <v>0.7951084186227567</v>
       </c>
       <c r="M11" t="n">
-        <v>0.159105031053046</v>
+        <v>0.6065955568938247</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4152679757415</v>
+        <v>36.06207712045129</v>
       </c>
       <c r="O11" t="n">
-        <v>278.7504405189579</v>
+        <v>73.02666070867711</v>
       </c>
     </row>
   </sheetData>
